--- a/data/hotels_by_city/Denver/Denver_shard_170.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_170.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g29144-d225470-Reviews-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-InTown-Suites-Southeast-Aurora.h694894.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,143 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r397677711-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>225470</t>
+  </si>
+  <si>
+    <t>397677711</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights and loved it....... I will be coming back in town for another visit and this is where I will be staying.... Everyone was so helpful and so nice....... I travel for work and I will be only staying here at extended stay American......</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r378782512-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>378782512</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Hidden Value</t>
+  </si>
+  <si>
+    <t>I have been here just over a month, and while it is not perfect it is far superior to other hotels of a similar type (one of which is across the street).
+The hotel was recently acquired by InTown Suites and is being upgraded and refreshed.
+It is clean and everything works properly. The maintenance man is on top of things and housekeeping does a nice job. I appreciate that it smells fresh and there is no evidence of smoking in the building.
+As with extended stay properties the mix of guests is interesting, however, I have met many nice people. And management does not hesitate to get rid of troublemakers. I feel safe here at all hours. Sleeping is no issue as there is very little noise, both inside and out.
+Realistically there is nothing special about the building. It is older and worn. Hopefully, they refers if and give it new life. What sets the place apart is management. The manager Jesse, runs a class act and you see it in the staff. I feel lime a guest and that I matter. I see how other guests are treated as well. 
+There is a good feel about the place. I recommend it highly for stays of a week or more. Nightly rates are a bit steep so I would suggest looking elsewhere for one or two nights.
+I look forward to seeing the property refreshed. 
+If you have...I have been here just over a month, and while it is not perfect it is far superior to other hotels of a similar type (one of which is across the street).The hotel was recently acquired by InTown Suites and is being upgraded and refreshed.It is clean and everything works properly. The maintenance man is on top of things and housekeeping does a nice job. I appreciate that it smells fresh and there is no evidence of smoking in the building.As with extended stay properties the mix of guests is interesting, however, I have met many nice people. And management does not hesitate to get rid of troublemakers. I feel safe here at all hours. Sleeping is no issue as there is very little noise, both inside and out.Realistically there is nothing special about the building. It is older and worn. Hopefully, they refers if and give it new life. What sets the place apart is management. The manager Jesse, runs a class act and you see it in the staff. I feel lime a guest and that I matter. I see how other guests are treated as well. There is a good feel about the place. I recommend it highly for stays of a week or more. Nightly rates are a bit steep so I would suggest looking elsewhere for one or two nights.I look forward to seeing the property refreshed. If you have issues talk to Jesse.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I have been here just over a month, and while it is not perfect it is far superior to other hotels of a similar type (one of which is across the street).
+The hotel was recently acquired by InTown Suites and is being upgraded and refreshed.
+It is clean and everything works properly. The maintenance man is on top of things and housekeeping does a nice job. I appreciate that it smells fresh and there is no evidence of smoking in the building.
+As with extended stay properties the mix of guests is interesting, however, I have met many nice people. And management does not hesitate to get rid of troublemakers. I feel safe here at all hours. Sleeping is no issue as there is very little noise, both inside and out.
+Realistically there is nothing special about the building. It is older and worn. Hopefully, they refers if and give it new life. What sets the place apart is management. The manager Jesse, runs a class act and you see it in the staff. I feel lime a guest and that I matter. I see how other guests are treated as well. 
+There is a good feel about the place. I recommend it highly for stays of a week or more. Nightly rates are a bit steep so I would suggest looking elsewhere for one or two nights.
+I look forward to seeing the property refreshed. 
+If you have...I have been here just over a month, and while it is not perfect it is far superior to other hotels of a similar type (one of which is across the street).The hotel was recently acquired by InTown Suites and is being upgraded and refreshed.It is clean and everything works properly. The maintenance man is on top of things and housekeeping does a nice job. I appreciate that it smells fresh and there is no evidence of smoking in the building.As with extended stay properties the mix of guests is interesting, however, I have met many nice people. And management does not hesitate to get rid of troublemakers. I feel safe here at all hours. Sleeping is no issue as there is very little noise, both inside and out.Realistically there is nothing special about the building. It is older and worn. Hopefully, they refers if and give it new life. What sets the place apart is management. The manager Jesse, runs a class act and you see it in the staff. I feel lime a guest and that I matter. I see how other guests are treated as well. There is a good feel about the place. I recommend it highly for stays of a week or more. Nightly rates are a bit steep so I would suggest looking elsewhere for one or two nights.I look forward to seeing the property refreshed. If you have issues talk to Jesse.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r350824306-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>350824306</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Walk across the street for free breakfast :D</t>
+  </si>
+  <si>
+    <t>Since Crestwood has been welcomed to the Extended Stay Family thanks to the district manager across the street, you can get a wonderful free breakfast if you just walk accross the street and take it. Every morning at 7AM you can go to the parent extended stay america and take it back to crestwoodif you cant hold enough nature valley bars just take the cart with you back to crestwood or put the stuff in your pocket Take the basket, guests are encouraged to bring the coffee dispenser with you too so everyone gets coffee. The hotels are interchangable the staff will take care of it later as long as its somewhere between the two hotelsMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Since Crestwood has been welcomed to the Extended Stay Family thanks to the district manager across the street, you can get a wonderful free breakfast if you just walk accross the street and take it. Every morning at 7AM you can go to the parent extended stay america and take it back to crestwoodif you cant hold enough nature valley bars just take the cart with you back to crestwood or put the stuff in your pocket Take the basket, guests are encouraged to bring the coffee dispenser with you too so everyone gets coffee. The hotels are interchangable the staff will take care of it later as long as its somewhere between the two hotelsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r274476012-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>274476012</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Stay away from this" DUMP" with false advertisment!</t>
+  </si>
+  <si>
+    <t>1st rm very dirty with white substance all over  the night stand, hair in bathtub &amp; dirty floors, smelled awfu.l dirty hallways .2nd room next to lobby was very noisy with pm clerk laughing and talking loudly during the evening. room is seperated by only a DOOR!! room 101. I shopped prior to coming to the property so I would not have to take my 80 year old Mother out. When I went to the 2nd room there was no dishes to cook or eat out of. After the 2nd day of complaining &amp; not getting dishes I gave my food to a family. The 3rd day I received dishes by the asst mgr. She stated people steal dishes. NOt an apology. Well...not my fault you should keep more of a supply in which you advertise cooking amentites and other. Which is part of the reason I choose this Motel to be able to cook for my Mom. I pratically had to beg for an extra blanket because the one on the bed is SHEET THIN!! The blanket given to me was a sponge material and torn (ugh). I had no iron which I got on the 3rd day. Phone did not work for incoming calls never fixed. The only way I knew this is the light would blink when they left a message. Refrigerator froze my water bottles  on 1. I complained every day of someone jumping up and...1st rm very dirty with white substance all over  the night stand, hair in bathtub &amp; dirty floors, smelled awfu.l dirty hallways .2nd room next to lobby was very noisy with pm clerk laughing and talking loudly during the evening. room is seperated by only a DOOR!! room 101. I shopped prior to coming to the property so I would not have to take my 80 year old Mother out. When I went to the 2nd room there was no dishes to cook or eat out of. After the 2nd day of complaining &amp; not getting dishes I gave my food to a family. The 3rd day I received dishes by the asst mgr. She stated people steal dishes. NOt an apology. Well...not my fault you should keep more of a supply in which you advertise cooking amentites and other. Which is part of the reason I choose this Motel to be able to cook for my Mom. I pratically had to beg for an extra blanket because the one on the bed is SHEET THIN!! The blanket given to me was a sponge material and torn (ugh). I had no iron which I got on the 3rd day. Phone did not work for incoming calls never fixed. The only way I knew this is the light would blink when they left a message. Refrigerator froze my water bottles  on 1. I complained every day of someone jumping up and day all day and nite the entire time which was never resolved. So I got no sleep!! I understand this is an extended stay, and tried to give the property the benefit of the doubt, however this place has truly lived up to it's reviews. I will in the future believe what I am reading.There is a lot of traffic and undesirables hanging out all night in front and in the stairwells. The walls are paper thin and since I was on the end I heard everything. I was surprised on the 3rd day to see there is security.  Who Knew! With everything happening at nite I never knew. Finally on the 3rd day I checked out I'd had enough. They were reluctant to refund my remaining stay because there refund policy is NO REFUND. But If they expect to have business then they should operate a better facility. I went to the Airport and paid a little more at a Laquinta Inn. It was Awsome. If your thinking of staying here "Don't" pay a little more for a piece of mind. The only positive thing is the am shift clerk "Conseula" apologized with a wonderful smile and was able to talk to the Manager regarding my concerns to get my refund. I did share with her ...her apology was the only one I received. Not even one form the Manager.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>1st rm very dirty with white substance all over  the night stand, hair in bathtub &amp; dirty floors, smelled awfu.l dirty hallways .2nd room next to lobby was very noisy with pm clerk laughing and talking loudly during the evening. room is seperated by only a DOOR!! room 101. I shopped prior to coming to the property so I would not have to take my 80 year old Mother out. When I went to the 2nd room there was no dishes to cook or eat out of. After the 2nd day of complaining &amp; not getting dishes I gave my food to a family. The 3rd day I received dishes by the asst mgr. She stated people steal dishes. NOt an apology. Well...not my fault you should keep more of a supply in which you advertise cooking amentites and other. Which is part of the reason I choose this Motel to be able to cook for my Mom. I pratically had to beg for an extra blanket because the one on the bed is SHEET THIN!! The blanket given to me was a sponge material and torn (ugh). I had no iron which I got on the 3rd day. Phone did not work for incoming calls never fixed. The only way I knew this is the light would blink when they left a message. Refrigerator froze my water bottles  on 1. I complained every day of someone jumping up and...1st rm very dirty with white substance all over  the night stand, hair in bathtub &amp; dirty floors, smelled awfu.l dirty hallways .2nd room next to lobby was very noisy with pm clerk laughing and talking loudly during the evening. room is seperated by only a DOOR!! room 101. I shopped prior to coming to the property so I would not have to take my 80 year old Mother out. When I went to the 2nd room there was no dishes to cook or eat out of. After the 2nd day of complaining &amp; not getting dishes I gave my food to a family. The 3rd day I received dishes by the asst mgr. She stated people steal dishes. NOt an apology. Well...not my fault you should keep more of a supply in which you advertise cooking amentites and other. Which is part of the reason I choose this Motel to be able to cook for my Mom. I pratically had to beg for an extra blanket because the one on the bed is SHEET THIN!! The blanket given to me was a sponge material and torn (ugh). I had no iron which I got on the 3rd day. Phone did not work for incoming calls never fixed. The only way I knew this is the light would blink when they left a message. Refrigerator froze my water bottles  on 1. I complained every day of someone jumping up and day all day and nite the entire time which was never resolved. So I got no sleep!! I understand this is an extended stay, and tried to give the property the benefit of the doubt, however this place has truly lived up to it's reviews. I will in the future believe what I am reading.There is a lot of traffic and undesirables hanging out all night in front and in the stairwells. The walls are paper thin and since I was on the end I heard everything. I was surprised on the 3rd day to see there is security.  Who Knew! With everything happening at nite I never knew. Finally on the 3rd day I checked out I'd had enough. They were reluctant to refund my remaining stay because there refund policy is NO REFUND. But If they expect to have business then they should operate a better facility. I went to the Airport and paid a little more at a Laquinta Inn. It was Awsome. If your thinking of staying here "Don't" pay a little more for a piece of mind. The only positive thing is the am shift clerk "Conseula" apologized with a wonderful smile and was able to talk to the Manager regarding my concerns to get my refund. I did share with her ...her apology was the only one I received. Not even one form the Manager.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r273577865-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>273577865</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r272785399-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>272785399</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Poor conditions - would not recommend</t>
+  </si>
+  <si>
+    <t>Although they say the premises are NON SMOKING, the entire placed smelled of tobacco smoke. It was in dire need of a cleaning crew. Hallways and elevators were dirty. Our rooms was not even ready and they gave us a different room. The only redeeming factor was that the staff was pleasant and helpful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
 </sst>
 </file>
@@ -532,11 +678,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +710,441 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42560</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42560</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42560</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42560</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42560</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42560</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_170.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_170.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/03/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r584931670-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>225470</t>
+  </si>
+  <si>
+    <t>584931670</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>worst experience ever</t>
+  </si>
+  <si>
+    <t>I arrived 10 minutes after "late reservation time" and the only way to get in was calling a phone number. I called and explained the employee that I had made a reservation and had the printed copy to show. Right from the beginning he said in very rude manners that he would not check me in since I hadn't called before hand. I tried to explain that I had a good reservation and printed copy. He refused to come to the front door to talk to me in person, and was insulting the way he talked to me. I said I was already charged for the room, and he just ignored that. I had to leave and look for another hotel, and pay a second time for that night. I was never so badly treated in a hotel. I advice others to be careful with this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I arrived 10 minutes after "late reservation time" and the only way to get in was calling a phone number. I called and explained the employee that I had made a reservation and had the printed copy to show. Right from the beginning he said in very rude manners that he would not check me in since I hadn't called before hand. I tried to explain that I had a good reservation and printed copy. He refused to come to the front door to talk to me in person, and was insulting the way he talked to me. I said I was already charged for the room, and he just ignored that. I had to leave and look for another hotel, and pay a second time for that night. I was never so badly treated in a hotel. I advice others to be careful with this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r495982872-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>495982872</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Not worth the cheap price..</t>
+  </si>
+  <si>
+    <t>Booked here for a week vacation. Never again. Pictures and descriptions are so misleading. Not a hotel for traveling folk but a place for homeless. No type of amnesties, whats the point having a kitchen if no supplies are being offered. Only get two towels &amp; washcloths for a week; which is crazy since there's no daily housekeeping. You have to deal with loud &amp; obnoxious people, walls are super thin so you can hear whole conversations from other rooms. Police were always there cause of trifling young folk and their activities. I can go on &amp; on.. Basically, stay away from this "Hotel" is you're traveling. Pay a little more and stay somewhere else..MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Booked here for a week vacation. Never again. Pictures and descriptions are so misleading. Not a hotel for traveling folk but a place for homeless. No type of amnesties, whats the point having a kitchen if no supplies are being offered. Only get two towels &amp; washcloths for a week; which is crazy since there's no daily housekeeping. You have to deal with loud &amp; obnoxious people, walls are super thin so you can hear whole conversations from other rooms. Police were always there cause of trifling young folk and their activities. I can go on &amp; on.. Basically, stay away from this "Hotel" is you're traveling. Pay a little more and stay somewhere else..More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r397677711-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
   </si>
   <si>
-    <t>29144</t>
-  </si>
-  <si>
-    <t>225470</t>
-  </si>
-  <si>
     <t>397677711</t>
   </si>
   <si>
@@ -175,9 +223,6 @@
   </si>
   <si>
     <t>July 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r378782512-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
@@ -233,21 +278,63 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Since Crestwood has been welcomed to the Extended Stay Family thanks to the district manager across the street, you can get a wonderful free breakfast if you just walk accross the street and take it. Every morning at 7AM you can go to the parent extended stay america and take it back to crestwoodif you cant hold enough nature valley bars just take the cart with you back to crestwood or put the stuff in your pocket Take the basket, guests are encouraged to bring the coffee dispenser with you too so everyone gets coffee. The hotels are interchangable the staff will take care of it later as long as its somewhere between the two hotelsMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r279412871-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>279412871</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Easy Freeway access, otherwise - Don't Bother</t>
+  </si>
+  <si>
+    <t>Not certain where to start ~ D U M P  false advertisement as this place is truly falling apart. Should be closed for at least 6 mos. for a total revamp or torn down.
+We had 2 check 3 different rooms before we found one barely acceptable. Cabinets are falling apart. Rooms stink, my shoes stuck to the laminate flooring, carpet &amp; bathroom is filthy.
+There is stove top but no pots/pans, silverware, mugs/glasses, dishes to prepare anything. No coffee pot but full size fridge which was a positive so we could bring in leftovers (mini microwave) and store drinks (which I needed to digest this place!)
+No hair dryer, 1 mini bar of soap, 1 toilet paper, 2 wash clothes, 2 bath towels, no shampoo/condition/lotion and this is for the entire week. No cleaning service and you are to do your own laundry for fresh towels.
+Had problems from the get go w/internet and spent 20 minutes the first morning to get corrected. Front desk carries "banking hour's" 11 a.m. - 7 p.m. so I don't know what u do if arrive late.
+This is just a run down place and there are many other choices in the area. I landed a "great deal" hotel &amp; flight on Expedia but beware-you get what u pay 4, as we all know.
+Thin walls, bad bed w/2 flat tiny pillows so don't expect any decent rest - along w/the dog across...Not certain where to start ~ D U M P  false advertisement as this place is truly falling apart. Should be closed for at least 6 mos. for a total revamp or torn down.We had 2 check 3 different rooms before we found one barely acceptable. Cabinets are falling apart. Rooms stink, my shoes stuck to the laminate flooring, carpet &amp; bathroom is filthy.There is stove top but no pots/pans, silverware, mugs/glasses, dishes to prepare anything. No coffee pot but full size fridge which was a positive so we could bring in leftovers (mini microwave) and store drinks (which I needed to digest this place!)No hair dryer, 1 mini bar of soap, 1 toilet paper, 2 wash clothes, 2 bath towels, no shampoo/condition/lotion and this is for the entire week. No cleaning service and you are to do your own laundry for fresh towels.Had problems from the get go w/internet and spent 20 minutes the first morning to get corrected. Front desk carries "banking hour's" 11 a.m. - 7 p.m. so I don't know what u do if arrive late.This is just a run down place and there are many other choices in the area. I landed a "great deal" hotel &amp; flight on Expedia but beware-you get what u pay 4, as we all know.Thin walls, bad bed w/2 flat tiny pillows so don't expect any decent rest - along w/the dog across the hall to boot!There are some good eateries in the area  - other than that, nothing good 2 reportMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Not certain where to start ~ D U M P  false advertisement as this place is truly falling apart. Should be closed for at least 6 mos. for a total revamp or torn down.
+We had 2 check 3 different rooms before we found one barely acceptable. Cabinets are falling apart. Rooms stink, my shoes stuck to the laminate flooring, carpet &amp; bathroom is filthy.
+There is stove top but no pots/pans, silverware, mugs/glasses, dishes to prepare anything. No coffee pot but full size fridge which was a positive so we could bring in leftovers (mini microwave) and store drinks (which I needed to digest this place!)
+No hair dryer, 1 mini bar of soap, 1 toilet paper, 2 wash clothes, 2 bath towels, no shampoo/condition/lotion and this is for the entire week. No cleaning service and you are to do your own laundry for fresh towels.
+Had problems from the get go w/internet and spent 20 minutes the first morning to get corrected. Front desk carries "banking hour's" 11 a.m. - 7 p.m. so I don't know what u do if arrive late.
+This is just a run down place and there are many other choices in the area. I landed a "great deal" hotel &amp; flight on Expedia but beware-you get what u pay 4, as we all know.
+Thin walls, bad bed w/2 flat tiny pillows so don't expect any decent rest - along w/the dog across...Not certain where to start ~ D U M P  false advertisement as this place is truly falling apart. Should be closed for at least 6 mos. for a total revamp or torn down.We had 2 check 3 different rooms before we found one barely acceptable. Cabinets are falling apart. Rooms stink, my shoes stuck to the laminate flooring, carpet &amp; bathroom is filthy.There is stove top but no pots/pans, silverware, mugs/glasses, dishes to prepare anything. No coffee pot but full size fridge which was a positive so we could bring in leftovers (mini microwave) and store drinks (which I needed to digest this place!)No hair dryer, 1 mini bar of soap, 1 toilet paper, 2 wash clothes, 2 bath towels, no shampoo/condition/lotion and this is for the entire week. No cleaning service and you are to do your own laundry for fresh towels.Had problems from the get go w/internet and spent 20 minutes the first morning to get corrected. Front desk carries "banking hour's" 11 a.m. - 7 p.m. so I don't know what u do if arrive late.This is just a run down place and there are many other choices in the area. I landed a "great deal" hotel &amp; flight on Expedia but beware-you get what u pay 4, as we all know.Thin walls, bad bed w/2 flat tiny pillows so don't expect any decent rest - along w/the dog across the hall to boot!There are some good eateries in the area  - other than that, nothing good 2 reportMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r274504436-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>274504436</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Don't Stay Here</t>
+  </si>
+  <si>
+    <t>One the worst hotel experiences in a very long time.  This is an extended stay hotel and is not well maintained.  The queen bed only had two well used pillows, only two towels and two wash cloths in the bathroom, no hair dryer, no iron or board, and no coffee service.  We awoke the last morning to police responding to a domestic violence call at the hotel and no staff at the front desk to check us out.  We'll never stay there again and DO NOT recommend it!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r274476012-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
   </si>
   <si>
     <t>274476012</t>
   </si>
   <si>
-    <t>05/25/2015</t>
-  </si>
-  <si>
     <t>Stay away from this" DUMP" with false advertisment!</t>
   </si>
   <si>
@@ -285,6 +372,39 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r270843185-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>270843185</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Very disappointed</t>
+  </si>
+  <si>
+    <t>I am very disappointed. I have been here for 4 days not once have we received fresh towels. When we checked in the trash can was full overflowing with a second bag of trash by the can under the sink we had no coffee we also had no towels when I called the desk they told me where to take the trash (that wasn't my family's) and told us they had no towels. Day 4 still no towels or washcloths. I wouldn't be writing this review but I just went to front desk to ask if they had towels of course no and I told the lady it's been 4 days she said she works front desk and wasn't responsible for house keeping. I told her that's the problem no one is. I'm only giving one star because it's a required field.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am very disappointed. I have been here for 4 days not once have we received fresh towels. When we checked in the trash can was full overflowing with a second bag of trash by the can under the sink we had no coffee we also had no towels when I called the desk they told me where to take the trash (that wasn't my family's) and told us they had no towels. Day 4 still no towels or washcloths. I wouldn't be writing this review but I just went to front desk to ask if they had towels of course no and I told the lady it's been 4 days she said she works front desk and wasn't responsible for house keeping. I told her that's the problem no one is. I'm only giving one star because it's a required field.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d225470-r270507755-Denver_Southeast_Aurora_Extended_Stay_Hotel-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>270507755</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Very comfortable and home like</t>
+  </si>
+  <si>
+    <t>I loved crestwood suites am returning this week - Rooms were like apartment and cleanStaff went out of way to help meAll staff in every area was friendlyLongterm live ins friendly as well I have nothing bad to sayLots of restraunts and shoping close by too</t>
   </si>
 </sst>
 </file>
@@ -819,7 +939,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -829,17 +949,21 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -855,7 +979,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -864,43 +988,39 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -916,7 +1036,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -925,43 +1045,39 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -998,23 +1114,23 @@
         <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
         <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1052,39 +1168,39 @@
       <c r="J6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1099,7 +1215,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1108,35 +1224,37 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
         <v>2</v>
       </c>
-      <c r="N7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,7 +1262,363 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42560</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42560</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42560</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42560</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42560</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42560</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
